--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.373494393471977</v>
+        <v>1.599886</v>
       </c>
       <c r="H2">
-        <v>0.373494393471977</v>
+        <v>3.199772</v>
       </c>
       <c r="I2">
-        <v>0.001654353997160833</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J2">
-        <v>0.001654353997160833</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>4.72021535715015</v>
+        <v>2.170377</v>
       </c>
       <c r="N2">
-        <v>4.72021535715015</v>
+        <v>4.340754</v>
       </c>
       <c r="O2">
-        <v>0.2539109598758298</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P2">
-        <v>0.2539109598758298</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q2">
-        <v>1.762973971875907</v>
+        <v>3.472355777022</v>
       </c>
       <c r="R2">
-        <v>1.762973971875907</v>
+        <v>13.889423108088</v>
       </c>
       <c r="S2">
-        <v>0.0004200586113935229</v>
+        <v>0.0006410674854223831</v>
       </c>
       <c r="T2">
-        <v>0.0004200586113935229</v>
+        <v>0.0003074709040300587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.373494393471977</v>
+        <v>1.599886</v>
       </c>
       <c r="H3">
-        <v>0.373494393471977</v>
+        <v>3.199772</v>
       </c>
       <c r="I3">
-        <v>0.001654353997160833</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J3">
-        <v>0.001654353997160833</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.80976776352595</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N3">
-        <v>3.80976776352595</v>
+        <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2049359439237332</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P3">
-        <v>0.2049359439237332</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q3">
-        <v>1.422926900107215</v>
+        <v>8.098581868259332</v>
       </c>
       <c r="R3">
-        <v>1.422926900107215</v>
+        <v>48.591491209556</v>
       </c>
       <c r="S3">
-        <v>0.0003390365979921563</v>
+        <v>0.001495162894346302</v>
       </c>
       <c r="T3">
-        <v>0.0003390365979921563</v>
+        <v>0.001075672446155866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.373494393471977</v>
+        <v>1.599886</v>
       </c>
       <c r="H4">
-        <v>0.373494393471977</v>
+        <v>3.199772</v>
       </c>
       <c r="I4">
-        <v>0.001654353997160833</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J4">
-        <v>0.001654353997160833</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.58071370113964</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N4">
-        <v>4.58071370113964</v>
+        <v>11.446562</v>
       </c>
       <c r="O4">
-        <v>0.2464068532404745</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P4">
-        <v>0.2464068532404745</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q4">
-        <v>1.710870885475925</v>
+        <v>6.104398097310667</v>
       </c>
       <c r="R4">
-        <v>1.710870885475925</v>
+        <v>36.62638858386401</v>
       </c>
       <c r="S4">
-        <v>0.0004076441625862017</v>
+        <v>0.001126996019289338</v>
       </c>
       <c r="T4">
-        <v>0.0004076441625862017</v>
+        <v>0.0008108003278177287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.373494393471977</v>
+        <v>1.599886</v>
       </c>
       <c r="H5">
-        <v>0.373494393471977</v>
+        <v>3.199772</v>
       </c>
       <c r="I5">
-        <v>0.001654353997160833</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J5">
-        <v>0.001654353997160833</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.11321536901337</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N5">
-        <v>3.11321536901337</v>
+        <v>13.998656</v>
       </c>
       <c r="O5">
-        <v>0.1674668299718481</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P5">
-        <v>0.1674668299718481</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q5">
-        <v>1.162768485997286</v>
+        <v>7.465417917738667</v>
       </c>
       <c r="R5">
-        <v>1.162768485997286</v>
+        <v>44.792507506432</v>
       </c>
       <c r="S5">
-        <v>0.0002770494195557805</v>
+        <v>0.001378267953941175</v>
       </c>
       <c r="T5">
-        <v>0.0002770494195557805</v>
+        <v>0.0009915741402359605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.373494393471977</v>
+        <v>1.599886</v>
       </c>
       <c r="H6">
-        <v>0.373494393471977</v>
+        <v>3.199772</v>
       </c>
       <c r="I6">
-        <v>0.001654353997160833</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J6">
-        <v>0.001654353997160833</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.36612960751815</v>
+        <v>3.288577</v>
       </c>
       <c r="N6">
-        <v>2.36612960751815</v>
+        <v>9.865731</v>
       </c>
       <c r="O6">
-        <v>0.1272794129881144</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P6">
-        <v>0.1272794129881144</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q6">
-        <v>0.8837361426360784</v>
+        <v>5.261348302222</v>
       </c>
       <c r="R6">
-        <v>0.8837361426360784</v>
+        <v>31.568089813332</v>
       </c>
       <c r="S6">
-        <v>0.0002105652056331715</v>
+        <v>0.0009713518840311542</v>
       </c>
       <c r="T6">
-        <v>0.0002105652056331715</v>
+        <v>0.0006988244967319906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>223.169629939969</v>
+        <v>1.599886</v>
       </c>
       <c r="H7">
-        <v>223.169629939969</v>
+        <v>3.199772</v>
       </c>
       <c r="I7">
-        <v>0.988506322421658</v>
+        <v>0.006312752756792086</v>
       </c>
       <c r="J7">
-        <v>0.988506322421658</v>
+        <v>0.004220033790925782</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.72021535715015</v>
+        <v>2.3695805</v>
       </c>
       <c r="N7">
-        <v>4.72021535715015</v>
+        <v>4.739161</v>
       </c>
       <c r="O7">
-        <v>0.2539109598758298</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P7">
-        <v>0.2539109598758298</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q7">
-        <v>1053.408714492158</v>
+        <v>3.791058667823</v>
       </c>
       <c r="R7">
-        <v>1053.408714492158</v>
+        <v>15.164234671292</v>
       </c>
       <c r="S7">
-        <v>0.2509925891694097</v>
+        <v>0.0006999065197617342</v>
       </c>
       <c r="T7">
-        <v>0.2509925891694097</v>
+        <v>0.0003356914759541769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>223.169629939969</v>
+        <v>246.905299</v>
       </c>
       <c r="H8">
-        <v>223.169629939969</v>
+        <v>740.715897</v>
       </c>
       <c r="I8">
-        <v>0.988506322421658</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J8">
-        <v>0.988506322421658</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>3.80976776352595</v>
+        <v>2.170377</v>
       </c>
       <c r="N8">
-        <v>3.80976776352595</v>
+        <v>4.340754</v>
       </c>
       <c r="O8">
-        <v>0.2049359439237332</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P8">
-        <v>0.2049359439237332</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q8">
-        <v>850.2244619433096</v>
+        <v>535.877582127723</v>
       </c>
       <c r="R8">
-        <v>850.2244619433096</v>
+        <v>3215.265492766338</v>
       </c>
       <c r="S8">
-        <v>0.2025804762600606</v>
+        <v>0.09893389851988932</v>
       </c>
       <c r="T8">
-        <v>0.2025804762600606</v>
+        <v>0.07117650460096089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>223.169629939969</v>
+        <v>246.905299</v>
       </c>
       <c r="H9">
-        <v>223.169629939969</v>
+        <v>740.715897</v>
       </c>
       <c r="I9">
-        <v>0.988506322421658</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J9">
-        <v>0.988506322421658</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.58071370113964</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N9">
-        <v>4.58071370113964</v>
+        <v>15.185923</v>
       </c>
       <c r="O9">
-        <v>0.2464068532404745</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P9">
-        <v>0.2464068532404745</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q9">
-        <v>1022.276181544279</v>
+        <v>1249.828286301992</v>
       </c>
       <c r="R9">
-        <v>1022.276181544279</v>
+        <v>11248.45457671793</v>
       </c>
       <c r="S9">
-        <v>0.2435747323162346</v>
+        <v>0.2307437164162191</v>
       </c>
       <c r="T9">
-        <v>0.2435747323162346</v>
+        <v>0.249007642054661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>223.169629939969</v>
+        <v>246.905299</v>
       </c>
       <c r="H10">
-        <v>223.169629939969</v>
+        <v>740.715897</v>
       </c>
       <c r="I10">
-        <v>0.988506322421658</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J10">
-        <v>0.988506322421658</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.11321536901337</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N10">
-        <v>3.11321536901337</v>
+        <v>11.446562</v>
       </c>
       <c r="O10">
-        <v>0.1674668299718481</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P10">
-        <v>0.1674668299718481</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q10">
-        <v>694.7751218261378</v>
+        <v>942.0722710440127</v>
       </c>
       <c r="R10">
-        <v>694.7751218261378</v>
+        <v>8478.650439396115</v>
       </c>
       <c r="S10">
-        <v>0.1655420202230846</v>
+        <v>0.1739256979025029</v>
       </c>
       <c r="T10">
-        <v>0.1655420202230846</v>
+        <v>0.187692339362743</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>223.169629939969</v>
+        <v>246.905299</v>
       </c>
       <c r="H11">
-        <v>223.169629939969</v>
+        <v>740.715897</v>
       </c>
       <c r="I11">
-        <v>0.988506322421658</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J11">
-        <v>0.988506322421658</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.36612960751815</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N11">
-        <v>2.36612960751815</v>
+        <v>13.998656</v>
       </c>
       <c r="O11">
-        <v>0.1272794129881144</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P11">
-        <v>0.1272794129881144</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q11">
-        <v>528.0482688998296</v>
+        <v>1152.114115092715</v>
       </c>
       <c r="R11">
-        <v>528.0482688998296</v>
+        <v>10369.02703583443</v>
       </c>
       <c r="S11">
-        <v>0.1258165044528684</v>
+        <v>0.2127036934318845</v>
       </c>
       <c r="T11">
-        <v>0.1258165044528684</v>
+        <v>0.2295397074313055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78968185466542</v>
+        <v>246.905299</v>
       </c>
       <c r="H12">
-        <v>1.78968185466542</v>
+        <v>740.715897</v>
       </c>
       <c r="I12">
-        <v>0.007927206891618563</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J12">
-        <v>0.007927206891618563</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.72021535715015</v>
+        <v>3.288577</v>
       </c>
       <c r="N12">
-        <v>4.72021535715015</v>
+        <v>9.865731</v>
       </c>
       <c r="O12">
-        <v>0.2539109598758298</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P12">
-        <v>0.2539109598758298</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q12">
-        <v>8.447683774804679</v>
+        <v>811.9670874695231</v>
       </c>
       <c r="R12">
-        <v>8.447683774804679</v>
+        <v>7307.703787225708</v>
       </c>
       <c r="S12">
-        <v>0.002012804710985162</v>
+        <v>0.149905635377099</v>
       </c>
       <c r="T12">
-        <v>0.002012804710985162</v>
+        <v>0.1617710305429293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.78968185466542</v>
+        <v>246.905299</v>
       </c>
       <c r="H13">
-        <v>1.78968185466542</v>
+        <v>740.715897</v>
       </c>
       <c r="I13">
-        <v>0.007927206891618563</v>
+        <v>0.974226980502876</v>
       </c>
       <c r="J13">
-        <v>0.007927206891618563</v>
+        <v>0.9768965147566455</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.80976776352595</v>
+        <v>2.3695805</v>
       </c>
       <c r="N13">
-        <v>3.80976776352595</v>
+        <v>4.739161</v>
       </c>
       <c r="O13">
-        <v>0.2049359439237332</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P13">
-        <v>0.2049359439237332</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q13">
-        <v>6.818272236871652</v>
+        <v>585.0619818570696</v>
       </c>
       <c r="R13">
-        <v>6.818272236871652</v>
+        <v>3510.371891142418</v>
       </c>
       <c r="S13">
-        <v>0.001624569627012573</v>
+        <v>0.1080143388552812</v>
       </c>
       <c r="T13">
-        <v>0.001624569627012573</v>
+        <v>0.07770929076404572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.78968185466542</v>
+        <v>0.749269</v>
       </c>
       <c r="H14">
-        <v>1.78968185466542</v>
+        <v>2.247807</v>
       </c>
       <c r="I14">
-        <v>0.007927206891618563</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J14">
-        <v>0.007927206891618563</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>4.58071370113964</v>
+        <v>2.170377</v>
       </c>
       <c r="N14">
-        <v>4.58071370113964</v>
+        <v>4.340754</v>
       </c>
       <c r="O14">
-        <v>0.2464068532404745</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P14">
-        <v>0.2464068532404745</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q14">
-        <v>8.198020192346892</v>
+        <v>1.626196204413</v>
       </c>
       <c r="R14">
-        <v>8.198020192346892</v>
+        <v>9.757177226477998</v>
       </c>
       <c r="S14">
-        <v>0.001953318105149933</v>
+        <v>0.0003002288873925664</v>
       </c>
       <c r="T14">
-        <v>0.001953318105149933</v>
+        <v>0.000215995155397039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.78968185466542</v>
+        <v>0.749269</v>
       </c>
       <c r="H15">
-        <v>1.78968185466542</v>
+        <v>2.247807</v>
       </c>
       <c r="I15">
-        <v>0.007927206891618563</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J15">
-        <v>0.007927206891618563</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.11321536901337</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N15">
-        <v>3.11321536901337</v>
+        <v>15.185923</v>
       </c>
       <c r="O15">
-        <v>0.1674668299718481</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P15">
-        <v>0.1674668299718481</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q15">
-        <v>5.571665055588738</v>
+        <v>3.792780446762333</v>
       </c>
       <c r="R15">
-        <v>5.571665055588738</v>
+        <v>34.135024020861</v>
       </c>
       <c r="S15">
-        <v>0.001327544208670348</v>
+        <v>0.0007002243951656301</v>
       </c>
       <c r="T15">
-        <v>0.001327544208670348</v>
+        <v>0.0007556488569111421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.78968185466542</v>
+        <v>0.749269</v>
       </c>
       <c r="H16">
-        <v>1.78968185466542</v>
+        <v>2.247807</v>
       </c>
       <c r="I16">
-        <v>0.007927206891618563</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J16">
-        <v>0.007927206891618563</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.36612960751815</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N16">
-        <v>2.36612960751815</v>
+        <v>11.446562</v>
       </c>
       <c r="O16">
-        <v>0.1272794129881144</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P16">
-        <v>0.1272794129881144</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q16">
-        <v>4.234619224361845</v>
+        <v>2.858851354392666</v>
       </c>
       <c r="R16">
-        <v>4.234619224361845</v>
+        <v>25.729662189534</v>
       </c>
       <c r="S16">
-        <v>0.001008970239800546</v>
+        <v>0.0005278020936347357</v>
       </c>
       <c r="T16">
-        <v>0.001008970239800546</v>
+        <v>0.0005695789113946197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.431688057357393</v>
+        <v>0.749269</v>
       </c>
       <c r="H17">
-        <v>0.431688057357393</v>
+        <v>2.247807</v>
       </c>
       <c r="I17">
-        <v>0.001912116689562521</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J17">
-        <v>0.001912116689562521</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.72021535715015</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N17">
-        <v>4.72021535715015</v>
+        <v>13.998656</v>
       </c>
       <c r="O17">
-        <v>0.2539109598758298</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P17">
-        <v>0.2539109598758298</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q17">
-        <v>2.037660597836681</v>
+        <v>3.496252994154666</v>
       </c>
       <c r="R17">
-        <v>2.037660597836681</v>
+        <v>31.466276947392</v>
       </c>
       <c r="S17">
-        <v>0.0004855073840414136</v>
+        <v>0.0006454793976455511</v>
       </c>
       <c r="T17">
-        <v>0.0004855073840414136</v>
+        <v>0.0006965706598599441</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.431688057357393</v>
+        <v>0.749269</v>
       </c>
       <c r="H18">
-        <v>0.431688057357393</v>
+        <v>2.247807</v>
       </c>
       <c r="I18">
-        <v>0.001912116689562521</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J18">
-        <v>0.001912116689562521</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.80976776352595</v>
+        <v>3.288577</v>
       </c>
       <c r="N18">
-        <v>3.80976776352595</v>
+        <v>9.865731</v>
       </c>
       <c r="O18">
-        <v>0.2049359439237332</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P18">
-        <v>0.2049359439237332</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q18">
-        <v>1.644631244819337</v>
+        <v>2.464028800213</v>
       </c>
       <c r="R18">
-        <v>1.644631244819337</v>
+        <v>22.176259201917</v>
       </c>
       <c r="S18">
-        <v>0.000391861438667819</v>
+        <v>0.0004549098215723738</v>
       </c>
       <c r="T18">
-        <v>0.000391861438667819</v>
+        <v>0.0004909170389407887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.431688057357393</v>
+        <v>0.749269</v>
       </c>
       <c r="H19">
-        <v>0.431688057357393</v>
+        <v>2.247807</v>
       </c>
       <c r="I19">
-        <v>0.001912116689562521</v>
+        <v>0.002956429361422532</v>
       </c>
       <c r="J19">
-        <v>0.001912116689562521</v>
+        <v>0.002964530440131206</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.58071370113964</v>
+        <v>2.3695805</v>
       </c>
       <c r="N19">
-        <v>4.58071370113964</v>
+        <v>4.739161</v>
       </c>
       <c r="O19">
-        <v>0.2464068532404745</v>
+        <v>0.1108718409743963</v>
       </c>
       <c r="P19">
-        <v>0.2464068532404745</v>
+        <v>0.07954710615730251</v>
       </c>
       <c r="Q19">
-        <v>1.977439398955365</v>
+        <v>1.7754532116545</v>
       </c>
       <c r="R19">
-        <v>1.977439398955365</v>
+        <v>10.652719269927</v>
       </c>
       <c r="S19">
-        <v>0.0004711586565036939</v>
+        <v>0.0003277847660116751</v>
       </c>
       <c r="T19">
-        <v>0.0004711586565036939</v>
+        <v>0.0002358198176276717</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.431688057357393</v>
+        <v>0.907353</v>
       </c>
       <c r="H20">
-        <v>0.431688057357393</v>
+        <v>2.722059</v>
       </c>
       <c r="I20">
-        <v>0.001912116689562521</v>
+        <v>0.00358018955858953</v>
       </c>
       <c r="J20">
-        <v>0.001912116689562521</v>
+        <v>0.003589999837767704</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>3.11321536901337</v>
+        <v>2.170377</v>
       </c>
       <c r="N20">
-        <v>3.11321536901337</v>
+        <v>4.340754</v>
       </c>
       <c r="O20">
-        <v>0.1674668299718481</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P20">
-        <v>0.1674668299718481</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q20">
-        <v>1.343937894784561</v>
+        <v>1.969298082081</v>
       </c>
       <c r="R20">
-        <v>1.343937894784561</v>
+        <v>11.815788492486</v>
       </c>
       <c r="S20">
-        <v>0.0003202161205372997</v>
+        <v>0.0003635724708513329</v>
       </c>
       <c r="T20">
-        <v>0.0003202161205372997</v>
+        <v>0.0002615667433658265</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.907353</v>
+      </c>
+      <c r="H21">
+        <v>2.722059</v>
+      </c>
+      <c r="I21">
+        <v>0.00358018955858953</v>
+      </c>
+      <c r="J21">
+        <v>0.003589999837767704</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N21">
+        <v>15.185923</v>
+      </c>
+      <c r="O21">
+        <v>0.2368480046581279</v>
+      </c>
+      <c r="P21">
+        <v>0.2548966428820674</v>
+      </c>
+      <c r="Q21">
+        <v>4.592997597272999</v>
+      </c>
+      <c r="R21">
+        <v>41.33697837545699</v>
+      </c>
+      <c r="S21">
+        <v>0.0008479607532497941</v>
+      </c>
+      <c r="T21">
+        <v>0.0009150789065941545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.907353</v>
+      </c>
+      <c r="H22">
+        <v>2.722059</v>
+      </c>
+      <c r="I22">
+        <v>0.00358018955858953</v>
+      </c>
+      <c r="J22">
+        <v>0.003589999837767704</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.815520666666667</v>
+      </c>
+      <c r="N22">
+        <v>11.446562</v>
+      </c>
+      <c r="O22">
+        <v>0.1785268745202745</v>
+      </c>
+      <c r="P22">
+        <v>0.1921312406457904</v>
+      </c>
+      <c r="Q22">
+        <v>3.462024123462</v>
+      </c>
+      <c r="R22">
+        <v>31.158217111158</v>
+      </c>
+      <c r="S22">
+        <v>0.0006391600520851099</v>
+      </c>
+      <c r="T22">
+        <v>0.0006897511227484953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.907353</v>
+      </c>
+      <c r="H23">
+        <v>2.722059</v>
+      </c>
+      <c r="I23">
+        <v>0.00358018955858953</v>
+      </c>
+      <c r="J23">
+        <v>0.003589999837767704</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.666218666666667</v>
+      </c>
+      <c r="N23">
+        <v>13.998656</v>
+      </c>
+      <c r="O23">
+        <v>0.2183307357409577</v>
+      </c>
+      <c r="P23">
+        <v>0.2349682939430755</v>
+      </c>
+      <c r="Q23">
+        <v>4.233907505856</v>
+      </c>
+      <c r="R23">
+        <v>38.105167552704</v>
+      </c>
+      <c r="S23">
+        <v>0.0007816654204189466</v>
+      </c>
+      <c r="T23">
+        <v>0.0008435361371361953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.907353</v>
+      </c>
+      <c r="H24">
+        <v>2.722059</v>
+      </c>
+      <c r="I24">
+        <v>0.00358018955858953</v>
+      </c>
+      <c r="J24">
+        <v>0.003589999837767704</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.288577</v>
+      </c>
+      <c r="N24">
+        <v>9.865731</v>
+      </c>
+      <c r="O24">
+        <v>0.1538713650690733</v>
+      </c>
+      <c r="P24">
+        <v>0.1655968959856798</v>
+      </c>
+      <c r="Q24">
+        <v>2.983900206681</v>
+      </c>
+      <c r="R24">
+        <v>26.855101860129</v>
+      </c>
+      <c r="S24">
+        <v>0.0005508886545862141</v>
+      </c>
+      <c r="T24">
+        <v>0.0005944928297234258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.907353</v>
+      </c>
+      <c r="H25">
+        <v>2.722059</v>
+      </c>
+      <c r="I25">
+        <v>0.00358018955858953</v>
+      </c>
+      <c r="J25">
+        <v>0.003589999837767704</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.3695805</v>
+      </c>
+      <c r="N25">
+        <v>4.739161</v>
+      </c>
+      <c r="O25">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="P25">
+        <v>0.07954710615730251</v>
+      </c>
+      <c r="Q25">
+        <v>2.1500459754165</v>
+      </c>
+      <c r="R25">
+        <v>12.900275852499</v>
+      </c>
+      <c r="S25">
+        <v>0.0003969422073981326</v>
+      </c>
+      <c r="T25">
+        <v>0.0002855740981996064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H26">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J26">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>2.170377</v>
+      </c>
+      <c r="N26">
+        <v>4.340754</v>
+      </c>
+      <c r="O26">
+        <v>0.1015511790371702</v>
+      </c>
+      <c r="P26">
+        <v>0.07285982038608425</v>
+      </c>
+      <c r="Q26">
+        <v>6.071715025662</v>
+      </c>
+      <c r="R26">
+        <v>36.430290153972</v>
+      </c>
+      <c r="S26">
+        <v>0.001120962059665632</v>
+      </c>
+      <c r="T26">
+        <v>0.0008064592863613231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H27">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J27">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N27">
+        <v>15.185923</v>
+      </c>
+      <c r="O27">
+        <v>0.2368480046581279</v>
+      </c>
+      <c r="P27">
+        <v>0.2548966428820674</v>
+      </c>
+      <c r="Q27">
+        <v>14.16107230182378</v>
+      </c>
+      <c r="R27">
+        <v>127.449650716414</v>
+      </c>
+      <c r="S27">
+        <v>0.002614421906732286</v>
+      </c>
+      <c r="T27">
+        <v>0.002821359751167194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H28">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J28">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.815520666666667</v>
+      </c>
+      <c r="N28">
+        <v>11.446562</v>
+      </c>
+      <c r="O28">
+        <v>0.1785268745202745</v>
+      </c>
+      <c r="P28">
+        <v>0.1921312406457904</v>
+      </c>
+      <c r="Q28">
+        <v>10.67406914214622</v>
+      </c>
+      <c r="R28">
+        <v>96.06662227931601</v>
+      </c>
+      <c r="S28">
+        <v>0.001970650216622943</v>
+      </c>
+      <c r="T28">
+        <v>0.002126631968043027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.431688057357393</v>
-      </c>
-      <c r="H21">
-        <v>0.431688057357393</v>
-      </c>
-      <c r="I21">
-        <v>0.001912116689562521</v>
-      </c>
-      <c r="J21">
-        <v>0.001912116689562521</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.36612960751815</v>
-      </c>
-      <c r="N21">
-        <v>2.36612960751815</v>
-      </c>
-      <c r="O21">
-        <v>0.1272794129881144</v>
-      </c>
-      <c r="P21">
-        <v>0.1272794129881144</v>
-      </c>
-      <c r="Q21">
-        <v>1.021429893725321</v>
-      </c>
-      <c r="R21">
-        <v>1.021429893725321</v>
-      </c>
-      <c r="S21">
-        <v>0.0002433730898122942</v>
-      </c>
-      <c r="T21">
-        <v>0.0002433730898122942</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H29">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J29">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>4.666218666666667</v>
+      </c>
+      <c r="N29">
+        <v>13.998656</v>
+      </c>
+      <c r="O29">
+        <v>0.2183307357409577</v>
+      </c>
+      <c r="P29">
+        <v>0.2349682939430755</v>
+      </c>
+      <c r="Q29">
+        <v>13.05393025793422</v>
+      </c>
+      <c r="R29">
+        <v>117.485372321408</v>
+      </c>
+      <c r="S29">
+        <v>0.002410020972133822</v>
+      </c>
+      <c r="T29">
+        <v>0.002600779986098649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H30">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J30">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.288577</v>
+      </c>
+      <c r="N30">
+        <v>9.865731</v>
+      </c>
+      <c r="O30">
+        <v>0.1538713650690733</v>
+      </c>
+      <c r="P30">
+        <v>0.1655968959856798</v>
+      </c>
+      <c r="Q30">
+        <v>9.199923508195333</v>
+      </c>
+      <c r="R30">
+        <v>82.799311573758</v>
+      </c>
+      <c r="S30">
+        <v>0.001698492956426016</v>
+      </c>
+      <c r="T30">
+        <v>0.00183293279962255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.797539333333333</v>
+      </c>
+      <c r="H31">
+        <v>8.392618000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.01103839532237565</v>
+      </c>
+      <c r="J31">
+        <v>0.01106864225148916</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.3695805</v>
+      </c>
+      <c r="N31">
+        <v>4.739161</v>
+      </c>
+      <c r="O31">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="P31">
+        <v>0.07954710615730251</v>
+      </c>
+      <c r="Q31">
+        <v>6.628994652249667</v>
+      </c>
+      <c r="R31">
+        <v>39.77396791349801</v>
+      </c>
+      <c r="S31">
+        <v>0.001223847210794954</v>
+      </c>
+      <c r="T31">
+        <v>0.0008804784601964118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.477793</v>
+      </c>
+      <c r="H32">
+        <v>0.955586</v>
+      </c>
+      <c r="I32">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J32">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>2.170377</v>
+      </c>
+      <c r="N32">
+        <v>4.340754</v>
+      </c>
+      <c r="O32">
+        <v>0.1015511790371702</v>
+      </c>
+      <c r="P32">
+        <v>0.07285982038608425</v>
+      </c>
+      <c r="Q32">
+        <v>1.036990937961</v>
+      </c>
+      <c r="R32">
+        <v>4.147963751843999</v>
+      </c>
+      <c r="S32">
+        <v>0.0001914496139490043</v>
+      </c>
+      <c r="T32">
+        <v>9.182369596910895E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.477793</v>
+      </c>
+      <c r="H33">
+        <v>0.955586</v>
+      </c>
+      <c r="I33">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J33">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.061974333333333</v>
+      </c>
+      <c r="N33">
+        <v>15.185923</v>
+      </c>
+      <c r="O33">
+        <v>0.2368480046581279</v>
+      </c>
+      <c r="P33">
+        <v>0.2548966428820674</v>
+      </c>
+      <c r="Q33">
+        <v>2.418575902646333</v>
+      </c>
+      <c r="R33">
+        <v>14.511455415878</v>
+      </c>
+      <c r="S33">
+        <v>0.0004465182924148362</v>
+      </c>
+      <c r="T33">
+        <v>0.0003212408665780874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.477793</v>
+      </c>
+      <c r="H34">
+        <v>0.955586</v>
+      </c>
+      <c r="I34">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J34">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.815520666666667</v>
+      </c>
+      <c r="N34">
+        <v>11.446562</v>
+      </c>
+      <c r="O34">
+        <v>0.1785268745202745</v>
+      </c>
+      <c r="P34">
+        <v>0.1921312406457904</v>
+      </c>
+      <c r="Q34">
+        <v>1.823029065888667</v>
+      </c>
+      <c r="R34">
+        <v>10.938174395332</v>
+      </c>
+      <c r="S34">
+        <v>0.000336568236139519</v>
+      </c>
+      <c r="T34">
+        <v>0.0002421389530435394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.477793</v>
+      </c>
+      <c r="H35">
+        <v>0.955586</v>
+      </c>
+      <c r="I35">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J35">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.666218666666667</v>
+      </c>
+      <c r="N35">
+        <v>13.998656</v>
+      </c>
+      <c r="O35">
+        <v>0.2183307357409577</v>
+      </c>
+      <c r="P35">
+        <v>0.2349682939430755</v>
+      </c>
+      <c r="Q35">
+        <v>2.229486615402667</v>
+      </c>
+      <c r="R35">
+        <v>13.376919692416</v>
+      </c>
+      <c r="S35">
+        <v>0.0004116085649336364</v>
+      </c>
+      <c r="T35">
+        <v>0.0002961255884392765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.477793</v>
+      </c>
+      <c r="H36">
+        <v>0.955586</v>
+      </c>
+      <c r="I36">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J36">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.288577</v>
+      </c>
+      <c r="N36">
+        <v>9.865731</v>
+      </c>
+      <c r="O36">
+        <v>0.1538713650690733</v>
+      </c>
+      <c r="P36">
+        <v>0.1655968959856798</v>
+      </c>
+      <c r="Q36">
+        <v>1.571259070561</v>
+      </c>
+      <c r="R36">
+        <v>9.427554423366001</v>
+      </c>
+      <c r="S36">
+        <v>0.0002900863753585551</v>
+      </c>
+      <c r="T36">
+        <v>0.0002086982777317059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.477793</v>
+      </c>
+      <c r="H37">
+        <v>0.955586</v>
+      </c>
+      <c r="I37">
+        <v>0.001885252497944204</v>
+      </c>
+      <c r="J37">
+        <v>0.001260278923040643</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.3695805</v>
+      </c>
+      <c r="N37">
+        <v>4.739161</v>
+      </c>
+      <c r="O37">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="P37">
+        <v>0.07954710615730251</v>
+      </c>
+      <c r="Q37">
+        <v>1.1321689758365</v>
+      </c>
+      <c r="R37">
+        <v>4.528675903346</v>
+      </c>
+      <c r="S37">
+        <v>0.0002090214151486533</v>
+      </c>
+      <c r="T37">
+        <v>0.0001002515412789249</v>
       </c>
     </row>
   </sheetData>
